--- a/data/nak/총량/상주3_2020.xlsx
+++ b/data/nak/총량/상주3_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\nak\총량\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="126">
   <si>
     <t>dt</t>
   </si>
@@ -390,95 +397,36 @@
   </si>
   <si>
     <t>20200706</t>
-  </si>
-  <si>
-    <t>2020-07-12 12:00</t>
-  </si>
-  <si>
-    <t>20200715</t>
-  </si>
-  <si>
-    <t>2020-07-18 12:00</t>
-  </si>
-  <si>
-    <t>20200720</t>
-  </si>
-  <si>
-    <t>2020-07-24 12:00</t>
-  </si>
-  <si>
-    <t>20200727</t>
-  </si>
-  <si>
-    <t>2020-08-06 12:00</t>
-  </si>
-  <si>
-    <t>20200803</t>
-  </si>
-  <si>
-    <t>2020-08-12 12:00</t>
-  </si>
-  <si>
-    <t>20200811</t>
-  </si>
-  <si>
-    <t>2020-08-18 12:00</t>
-  </si>
-  <si>
-    <t>20200818</t>
-  </si>
-  <si>
-    <t>2020-08-24 12:00</t>
-  </si>
-  <si>
-    <t>20200825</t>
-  </si>
-  <si>
-    <t>2020-09-06 12:00</t>
-  </si>
-  <si>
-    <t>20200901</t>
-  </si>
-  <si>
-    <t>2020-09-12 12:00</t>
-  </si>
-  <si>
-    <t>20200909</t>
-  </si>
-  <si>
-    <t>2020-09-18 12:00</t>
-  </si>
-  <si>
-    <t>20200914</t>
-  </si>
-  <si>
-    <t>2020-09-24 12:00</t>
-  </si>
-  <si>
-    <t>20200922</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -496,7 +444,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -504,16 +458,24 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -522,10 +484,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -771,83 +733,85 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.43" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.71" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.43" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.71" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.75" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.71" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.71" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.75" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.29" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.29" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.57" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.29" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.29" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.29" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.57" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.29" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.71" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.43" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.43" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.71" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.43" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="13" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="16" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="13" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.29" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.71" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.875" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +999,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1112,10 +1076,10 @@
         <v>74</v>
       </c>
       <c r="AC2" s="3">
-        <v>46.799999999999997</v>
+        <v>46.8</v>
       </c>
       <c r="AD2" s="3">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AE2" s="3">
         <v>8.3000000000000007</v>
@@ -1124,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="AG2" s="3">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AH2" s="3">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI2" s="3">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AJ2">
         <v>266</v>
@@ -1145,13 +1109,13 @@
         <v>2.3330000000000002</v>
       </c>
       <c r="AN2" s="4">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AO2" s="4">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AP2" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1160,10 +1124,10 @@
         <v>10.6</v>
       </c>
       <c r="AS2" s="3">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1240,13 +1204,13 @@
         <v>77</v>
       </c>
       <c r="AC3" s="5">
-        <v>85.129999999999995</v>
+        <v>85.13</v>
       </c>
       <c r="AD3" s="3">
         <v>4.5999999999999996</v>
       </c>
       <c r="AE3" s="3">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF3" s="3">
         <v>13.5</v>
@@ -1255,7 +1219,7 @@
         <v>1.2</v>
       </c>
       <c r="AH3" s="3">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AI3">
         <v>11</v>
@@ -1276,22 +1240,22 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="AO3" s="4">
-        <v>0.049000000000000002</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AP3" s="4">
-        <v>0.037999999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AQ3" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AR3" s="3">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="AS3">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1368,22 +1332,22 @@
         <v>80</v>
       </c>
       <c r="AC4" s="5">
-        <v>50.380000000000003</v>
+        <v>50.38</v>
       </c>
       <c r="AD4" s="3">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AE4" s="3">
         <v>8.3000000000000007</v>
       </c>
       <c r="AF4" s="3">
-        <v>13.199999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="AG4">
         <v>1</v>
       </c>
       <c r="AH4" s="3">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI4">
         <v>4</v>
@@ -1401,25 +1365,25 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="AN4" s="4">
-        <v>0.072999999999999995</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AO4" s="4">
-        <v>0.035000000000000003</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AP4" s="4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AQ4" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AR4" s="3">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AS4" s="3">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1496,7 +1460,7 @@
         <v>83</v>
       </c>
       <c r="AC5" s="5">
-        <v>52.909999999999997</v>
+        <v>52.91</v>
       </c>
       <c r="AD5" s="3">
         <v>5.0999999999999996</v>
@@ -1505,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="AF5" s="3">
-        <v>13.699999999999999</v>
+        <v>13.7</v>
       </c>
       <c r="AG5" s="3">
         <v>1.1000000000000001</v>
@@ -1526,28 +1490,28 @@
         <v>3.306</v>
       </c>
       <c r="AM5" s="5">
-        <v>2.8599999999999999</v>
+        <v>2.86</v>
       </c>
       <c r="AN5" s="4">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AO5" s="4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AP5" s="5">
         <v>0.02</v>
       </c>
       <c r="AQ5" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AR5" s="3">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AS5" s="3">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -1624,13 +1588,13 @@
         <v>85</v>
       </c>
       <c r="AC6" s="5">
-        <v>57.079999999999998</v>
+        <v>57.08</v>
       </c>
       <c r="AD6" s="3">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AE6" s="3">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF6">
         <v>14</v>
@@ -1642,7 +1606,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AI6" s="3">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="AJ6">
         <v>258</v>
@@ -1654,16 +1618,16 @@
         <v>3.472</v>
       </c>
       <c r="AM6" s="5">
-        <v>2.8900000000000001</v>
+        <v>2.89</v>
       </c>
       <c r="AN6" s="4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AO6" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AP6" s="4">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -1672,10 +1636,10 @@
         <v>16.399999999999999</v>
       </c>
       <c r="AS6" s="3">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -1752,16 +1716,16 @@
         <v>87</v>
       </c>
       <c r="AC7" s="5">
-        <v>44.159999999999997</v>
+        <v>44.16</v>
       </c>
       <c r="AD7" s="3">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="AE7" s="3">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF7" s="3">
-        <v>14.699999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="AG7" s="3">
         <v>1.5</v>
@@ -1770,7 +1734,7 @@
         <v>4.5</v>
       </c>
       <c r="AI7" s="3">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AJ7">
         <v>257</v>
@@ -1785,25 +1749,25 @@
         <v>2.4849999999999999</v>
       </c>
       <c r="AN7" s="5">
-        <v>0.029999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AO7" s="4">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AP7" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7" s="3">
-        <v>24.800000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="AS7" s="3">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1880,10 +1844,10 @@
         <v>89</v>
       </c>
       <c r="AC8" s="5">
-        <v>56.329999999999998</v>
+        <v>56.33</v>
       </c>
       <c r="AD8" s="3">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="AE8">
         <v>8</v>
@@ -1898,7 +1862,7 @@
         <v>4.5</v>
       </c>
       <c r="AI8" s="3">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AJ8">
         <v>240</v>
@@ -1913,25 +1877,25 @@
         <v>2.456</v>
       </c>
       <c r="AN8" s="4">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AO8" s="4">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AP8" s="5">
         <v>0.01</v>
       </c>
       <c r="AQ8" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR8">
         <v>22</v>
       </c>
       <c r="AS8" s="3">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -2008,16 +1972,16 @@
         <v>91</v>
       </c>
       <c r="AC9" s="5">
-        <v>366.82999999999998</v>
+        <v>366.83</v>
       </c>
       <c r="AD9" s="3">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AE9" s="3">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF9" s="3">
-        <v>13.800000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="AG9">
         <v>2</v>
@@ -2041,10 +2005,10 @@
         <v>2.113</v>
       </c>
       <c r="AN9" s="4">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AO9" s="4">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AP9" s="5">
         <v>0.01</v>
@@ -2056,10 +2020,10 @@
         <v>30.5</v>
       </c>
       <c r="AS9" s="3">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2136,31 +2100,31 @@
         <v>93</v>
       </c>
       <c r="AC10" s="5">
-        <v>94.219999999999999</v>
+        <v>94.22</v>
       </c>
       <c r="AD10" s="3">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AE10" s="3">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AF10" s="3">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AG10" s="3">
         <v>1.5</v>
       </c>
       <c r="AH10" s="3">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="AI10" s="3">
-        <v>14.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="AJ10">
         <v>189</v>
       </c>
       <c r="AK10" s="3">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AL10" s="4">
         <v>2.5579999999999998</v>
@@ -2172,22 +2136,22 @@
         <v>0.123</v>
       </c>
       <c r="AO10" s="4">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AP10" s="4">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AQ10" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AR10" s="3">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="AS10" s="3">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -2264,13 +2228,13 @@
         <v>95</v>
       </c>
       <c r="AC11" s="5">
-        <v>44.009999999999998</v>
+        <v>44.01</v>
       </c>
       <c r="AD11">
         <v>9</v>
       </c>
       <c r="AE11" s="3">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF11" s="3">
         <v>12.5</v>
@@ -2279,10 +2243,10 @@
         <v>1.7</v>
       </c>
       <c r="AH11" s="3">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AI11" s="3">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AJ11">
         <v>198</v>
@@ -2297,25 +2261,25 @@
         <v>2.609</v>
       </c>
       <c r="AN11" s="4">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AO11" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AP11" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AQ11" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AR11" s="3">
-        <v>16.699999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="AS11">
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2392,13 +2356,13 @@
         <v>97</v>
       </c>
       <c r="AC12" s="5">
-        <v>57.460000000000001</v>
+        <v>57.46</v>
       </c>
       <c r="AD12">
         <v>9</v>
       </c>
       <c r="AE12" s="3">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF12" s="3">
         <v>13.1</v>
@@ -2425,7 +2389,7 @@
         <v>2.6520000000000001</v>
       </c>
       <c r="AN12" s="4">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AO12" s="5">
         <v>0.02</v>
@@ -2440,10 +2404,10 @@
         <v>17.100000000000001</v>
       </c>
       <c r="AS12" s="3">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2520,13 +2484,13 @@
         <v>99</v>
       </c>
       <c r="AC13" s="5">
-        <v>46.049999999999997</v>
+        <v>46.05</v>
       </c>
       <c r="AD13" s="3">
         <v>11.9</v>
       </c>
       <c r="AE13" s="3">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF13">
         <v>12</v>
@@ -2538,7 +2502,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AI13" s="3">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AJ13">
         <v>236</v>
@@ -2553,25 +2517,25 @@
         <v>2.3660000000000001</v>
       </c>
       <c r="AN13" s="4">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AO13" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AP13" s="5">
         <v>0.01</v>
       </c>
       <c r="AQ13" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AR13" s="3">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AS13" s="3">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2654,13 +2618,13 @@
         <v>13.5</v>
       </c>
       <c r="AE14" s="3">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF14" s="3">
         <v>11.6</v>
       </c>
       <c r="AG14" s="3">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AH14" s="3">
         <v>4.4000000000000004</v>
@@ -2681,25 +2645,25 @@
         <v>1.984</v>
       </c>
       <c r="AN14" s="5">
-        <v>0.029999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AO14" s="4">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AP14" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AQ14" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AR14" s="3">
         <v>13.1</v>
       </c>
       <c r="AS14" s="3">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -2791,10 +2755,10 @@
         <v>1.8</v>
       </c>
       <c r="AH15" s="3">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI15" s="3">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="AJ15">
         <v>254</v>
@@ -2809,13 +2773,13 @@
         <v>1.77</v>
       </c>
       <c r="AN15" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AO15" s="4">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AP15" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -2824,10 +2788,10 @@
         <v>10.4</v>
       </c>
       <c r="AS15" s="3">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -2904,7 +2868,7 @@
         <v>105</v>
       </c>
       <c r="AC16" s="5">
-        <v>58.219999999999999</v>
+        <v>58.22</v>
       </c>
       <c r="AD16" s="3">
         <v>14.6</v>
@@ -2913,7 +2877,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF16" s="3">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="AG16" s="3">
         <v>1.5</v>
@@ -2922,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="AI16" s="3">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AJ16">
         <v>259</v>
@@ -2937,25 +2901,25 @@
         <v>1.655</v>
       </c>
       <c r="AN16" s="4">
-        <v>0.045999999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AO16" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AP16" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AQ16" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AR16">
         <v>8</v>
       </c>
       <c r="AS16" s="3">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -3047,7 +3011,7 @@
         <v>2</v>
       </c>
       <c r="AH17" s="3">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="AI17" s="3">
         <v>4.5999999999999996</v>
@@ -3065,13 +3029,13 @@
         <v>1.4490000000000001</v>
       </c>
       <c r="AN17" s="4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AO17" s="5">
         <v>0.02</v>
       </c>
       <c r="AP17" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -3080,10 +3044,10 @@
         <v>12.9</v>
       </c>
       <c r="AS17" s="3">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -3160,13 +3124,13 @@
         <v>109</v>
       </c>
       <c r="AC18" s="5">
-        <v>220.78999999999999</v>
+        <v>220.79</v>
       </c>
       <c r="AD18" s="3">
-        <v>19.199999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="AE18" s="3">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF18" s="3">
         <v>9.8000000000000007</v>
@@ -3178,7 +3142,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AI18" s="3">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AJ18">
         <v>256</v>
@@ -3193,25 +3157,25 @@
         <v>1.401</v>
       </c>
       <c r="AN18" s="4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AO18" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AP18" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AQ18">
         <v>0</v>
       </c>
       <c r="AR18" s="3">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AS18" s="3">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3288,25 +3252,25 @@
         <v>111</v>
       </c>
       <c r="AC19" s="5">
-        <v>251.38999999999999</v>
+        <v>251.39</v>
       </c>
       <c r="AD19" s="3">
-        <v>19.800000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="AE19" s="3">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF19" s="3">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="AG19" s="3">
         <v>1.2</v>
       </c>
       <c r="AH19" s="3">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AI19" s="3">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="AJ19">
         <v>259</v>
@@ -3321,13 +3285,13 @@
         <v>1.198</v>
       </c>
       <c r="AN19" s="4">
-        <v>0.052999999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AO19" s="4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AP19" s="4">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -3336,10 +3300,10 @@
         <v>7</v>
       </c>
       <c r="AS19" s="3">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -3416,25 +3380,25 @@
         <v>113</v>
       </c>
       <c r="AC20" s="5">
-        <v>279.86000000000001</v>
+        <v>279.86</v>
       </c>
       <c r="AD20" s="3">
-        <v>19.699999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="AE20" s="3">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF20" s="3">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AG20" s="3">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AH20">
         <v>5</v>
       </c>
       <c r="AI20" s="3">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AJ20">
         <v>242</v>
@@ -3452,22 +3416,22 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="AO20" s="4">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AP20" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AQ20" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AR20" s="3">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AS20" s="3">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -3544,31 +3508,31 @@
         <v>115</v>
       </c>
       <c r="AC21" s="5">
-        <v>172.47999999999999</v>
+        <v>172.48</v>
       </c>
       <c r="AD21" s="3">
         <v>20.5</v>
       </c>
       <c r="AE21" s="3">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF21">
         <v>9</v>
       </c>
       <c r="AG21" s="3">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AH21" s="3">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="AI21" s="3">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="AJ21">
         <v>201</v>
       </c>
       <c r="AK21" s="5">
-        <v>2.6499999999999999</v>
+        <v>2.65</v>
       </c>
       <c r="AL21" s="4">
         <v>2.4470000000000001</v>
@@ -3577,25 +3541,25 @@
         <v>1.8149999999999999</v>
       </c>
       <c r="AN21" s="4">
-        <v>0.090999999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="AO21" s="4">
-        <v>0.052999999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AP21" s="4">
-        <v>0.042000000000000003</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AQ21" s="5">
         <v>0.02</v>
       </c>
       <c r="AR21" s="3">
-        <v>16.800000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="AS21" s="3">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -3672,25 +3636,25 @@
         <v>117</v>
       </c>
       <c r="AC22" s="5">
-        <v>207.34999999999999</v>
+        <v>207.35</v>
       </c>
       <c r="AD22" s="3">
-        <v>22.199999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="AE22" s="3">
         <v>8.1999999999999993</v>
       </c>
       <c r="AF22" s="3">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AG22" s="3">
         <v>1.8</v>
       </c>
       <c r="AH22" s="3">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="AI22" s="3">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AJ22">
         <v>212</v>
@@ -3705,10 +3669,10 @@
         <v>1.534</v>
       </c>
       <c r="AN22" s="4">
-        <v>0.070999999999999994</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="AO22" s="4">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AP22" s="5">
         <v>0.02</v>
@@ -3720,10 +3684,10 @@
         <v>32.700000000000003</v>
       </c>
       <c r="AS22" s="3">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -3800,10 +3764,10 @@
         <v>119</v>
       </c>
       <c r="AC23" s="3">
-        <v>56.299999999999997</v>
+        <v>56.3</v>
       </c>
       <c r="AD23" s="3">
-        <v>28.399999999999999</v>
+        <v>28.4</v>
       </c>
       <c r="AE23" s="3">
         <v>8.3000000000000007</v>
@@ -3818,7 +3782,7 @@
         <v>6</v>
       </c>
       <c r="AI23" s="3">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AJ23">
         <v>235</v>
@@ -3833,16 +3797,16 @@
         <v>1.2050000000000001</v>
       </c>
       <c r="AN23" s="5">
-        <v>0.029999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AO23" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AP23" s="4">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AQ23" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AR23">
         <v>8</v>
@@ -3851,7 +3815,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -3931,19 +3895,19 @@
         <v>156.37</v>
       </c>
       <c r="AD24" s="3">
-        <v>25.800000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="AE24" s="3">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF24" s="3">
         <v>7.5</v>
       </c>
       <c r="AG24" s="3">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AH24" s="3">
-        <v>8.9000000000000004</v>
+        <v>8.9</v>
       </c>
       <c r="AI24">
         <v>8</v>
@@ -3964,22 +3928,22 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="AO24" s="4">
-        <v>0.069000000000000006</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="AP24" s="4">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AQ24" s="4">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AR24" s="3">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="AS24" s="3">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -4059,7 +4023,7 @@
         <v>78.790000000000006</v>
       </c>
       <c r="AD25" s="3">
-        <v>25.899999999999999</v>
+        <v>25.9</v>
       </c>
       <c r="AE25">
         <v>8</v>
@@ -4074,7 +4038,7 @@
         <v>6</v>
       </c>
       <c r="AI25" s="3">
-        <v>4.7999999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="AJ25">
         <v>233</v>
@@ -4089,25 +4053,25 @@
         <v>1.028</v>
       </c>
       <c r="AN25" s="4">
-        <v>0.068000000000000005</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AO25" s="4">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AP25" s="4">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AQ25" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AR25" s="3">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AS25" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -4184,13 +4148,13 @@
         <v>125</v>
       </c>
       <c r="AC26" s="5">
-        <v>72.280000000000001</v>
+        <v>72.28</v>
       </c>
       <c r="AD26" s="3">
-        <v>22.399999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="AE26" s="3">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF26" s="3">
         <v>8.5</v>
@@ -4202,13 +4166,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AI26" s="3">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="AJ26">
         <v>179</v>
       </c>
       <c r="AK26" s="5">
-        <v>2.1699999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="AL26" s="4">
         <v>2.0339999999999998</v>
@@ -4217,1433 +4181,27 @@
         <v>1.5640000000000001</v>
       </c>
       <c r="AN26" s="5">
-        <v>0.050000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="AO26" s="4">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AP26" s="4">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AQ26" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AR26" s="3">
         <v>15.1</v>
       </c>
       <c r="AS26" s="3">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F27" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" t="s">
-        <v>68</v>
-      </c>
-      <c r="O27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>70</v>
-      </c>
-      <c r="R27" t="s">
-        <v>71</v>
-      </c>
-      <c r="S27" t="s">
-        <v>71</v>
-      </c>
-      <c r="T27" t="s">
-        <v>72</v>
-      </c>
-      <c r="U27" t="s">
-        <v>73</v>
-      </c>
-      <c r="V27" t="s">
-        <v>68</v>
-      </c>
-      <c r="W27" t="s">
-        <v>69</v>
-      </c>
-      <c r="X27" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC27" s="5">
-        <v>375.63</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>19.699999999999999</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>7.4000000000000004</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="AJ27">
-        <v>136</v>
-      </c>
-      <c r="AK27" s="4">
-        <v>2.8759999999999999</v>
-      </c>
-      <c r="AL27" s="4">
-        <v>2.6349999999999998</v>
-      </c>
-      <c r="AM27" s="4">
-        <v>1.9390000000000001</v>
-      </c>
-      <c r="AN27" s="4">
-        <v>0.063</v>
-      </c>
-      <c r="AO27" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="AP27" s="4">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="AQ27" s="4">
-        <v>0.075999999999999998</v>
-      </c>
-      <c r="AR27" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AS27" s="3">
-        <v>8.5999999999999996</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F28" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O28" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R28" t="s">
-        <v>71</v>
-      </c>
-      <c r="S28" t="s">
-        <v>71</v>
-      </c>
-      <c r="T28" t="s">
-        <v>72</v>
-      </c>
-      <c r="U28" t="s">
-        <v>73</v>
-      </c>
-      <c r="V28" t="s">
-        <v>68</v>
-      </c>
-      <c r="W28" t="s">
-        <v>69</v>
-      </c>
-      <c r="X28" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>91.219999999999999</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>23.5</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>7.4000000000000004</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AG28" s="3">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>5.7999999999999998</v>
-      </c>
-      <c r="AI28">
-        <v>8</v>
-      </c>
-      <c r="AJ28">
-        <v>183</v>
-      </c>
-      <c r="AK28" s="4">
-        <v>3.0449999999999999</v>
-      </c>
-      <c r="AL28" s="5">
-        <v>2.7799999999999998</v>
-      </c>
-      <c r="AM28" s="4">
-        <v>2.3719999999999999</v>
-      </c>
-      <c r="AN28" s="4">
-        <v>0.037999999999999999</v>
-      </c>
-      <c r="AO28" s="4">
-        <v>0.045999999999999999</v>
-      </c>
-      <c r="AP28" s="5">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="AQ28" s="4">
-        <v>0.028000000000000001</v>
-      </c>
-      <c r="AR28" s="3">
-        <v>7.9000000000000004</v>
-      </c>
-      <c r="AS28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F29" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>70</v>
-      </c>
-      <c r="R29" t="s">
-        <v>71</v>
-      </c>
-      <c r="S29" t="s">
-        <v>71</v>
-      </c>
-      <c r="T29" t="s">
-        <v>72</v>
-      </c>
-      <c r="U29" t="s">
-        <v>73</v>
-      </c>
-      <c r="V29" t="s">
-        <v>68</v>
-      </c>
-      <c r="W29" t="s">
-        <v>69</v>
-      </c>
-      <c r="X29" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC29" s="5">
-        <v>615.51999999999998</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>23.100000000000001</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>9.0999999999999996</v>
-      </c>
-      <c r="AG29" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="AJ29">
-        <v>134</v>
-      </c>
-      <c r="AK29" s="4">
-        <v>2.3740000000000001</v>
-      </c>
-      <c r="AL29" s="4">
-        <v>2.3279999999999998</v>
-      </c>
-      <c r="AM29" s="4">
-        <v>1.923</v>
-      </c>
-      <c r="AN29" s="4">
-        <v>0.066000000000000003</v>
-      </c>
-      <c r="AO29" s="4">
-        <v>0.107</v>
-      </c>
-      <c r="AP29" s="4">
-        <v>0.091999999999999998</v>
-      </c>
-      <c r="AQ29" s="4">
-        <v>0.069000000000000006</v>
-      </c>
-      <c r="AR29">
-        <v>3</v>
-      </c>
-      <c r="AS29" s="3">
-        <v>6.7999999999999998</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F30" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>70</v>
-      </c>
-      <c r="R30" t="s">
-        <v>71</v>
-      </c>
-      <c r="S30" t="s">
-        <v>71</v>
-      </c>
-      <c r="T30" t="s">
-        <v>72</v>
-      </c>
-      <c r="U30" t="s">
-        <v>73</v>
-      </c>
-      <c r="V30" t="s">
-        <v>68</v>
-      </c>
-      <c r="W30" t="s">
-        <v>69</v>
-      </c>
-      <c r="X30" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC30" s="5">
-        <v>982.02999999999997</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>23.100000000000001</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>8.9000000000000004</v>
-      </c>
-      <c r="AG30" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="AI30" s="3">
-        <v>80.5</v>
-      </c>
-      <c r="AJ30">
-        <v>121</v>
-      </c>
-      <c r="AK30" s="4">
-        <v>2.4140000000000001</v>
-      </c>
-      <c r="AL30" s="4">
-        <v>2.2360000000000002</v>
-      </c>
-      <c r="AM30" s="4">
-        <v>1.857</v>
-      </c>
-      <c r="AN30" s="4">
-        <v>0.068000000000000005</v>
-      </c>
-      <c r="AO30" s="4">
-        <v>0.192</v>
-      </c>
-      <c r="AP30" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="AQ30" s="4">
-        <v>0.122</v>
-      </c>
-      <c r="AR30" s="3">
-        <v>3.1000000000000001</v>
-      </c>
-      <c r="AS30" s="3">
-        <v>6.4000000000000004</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F31" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N31" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>70</v>
-      </c>
-      <c r="R31" t="s">
-        <v>71</v>
-      </c>
-      <c r="S31" t="s">
-        <v>71</v>
-      </c>
-      <c r="T31" t="s">
-        <v>72</v>
-      </c>
-      <c r="U31" t="s">
-        <v>73</v>
-      </c>
-      <c r="V31" t="s">
-        <v>68</v>
-      </c>
-      <c r="W31" t="s">
-        <v>69</v>
-      </c>
-      <c r="X31" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC31" s="5">
-        <v>3580.1599999999999</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>22.699999999999999</v>
-      </c>
-      <c r="AE31" s="3">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="AF31" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AG31" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AH31" s="3">
-        <v>13.300000000000001</v>
-      </c>
-      <c r="AI31" s="3">
-        <v>135.5</v>
-      </c>
-      <c r="AJ31">
-        <v>118</v>
-      </c>
-      <c r="AK31" s="4">
-        <v>1.9790000000000001</v>
-      </c>
-      <c r="AL31" s="4">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="AM31" s="4">
-        <v>1.3280000000000001</v>
-      </c>
-      <c r="AN31" s="5">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AO31" s="4">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="AP31" s="4">
-        <v>0.111</v>
-      </c>
-      <c r="AQ31" s="4">
-        <v>0.091999999999999998</v>
-      </c>
-      <c r="AR31" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AS31" s="3">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F32" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" t="s">
-        <v>67</v>
-      </c>
-      <c r="N32" t="s">
-        <v>68</v>
-      </c>
-      <c r="O32" t="s">
-        <v>69</v>
-      </c>
-      <c r="P32" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>70</v>
-      </c>
-      <c r="R32" t="s">
-        <v>71</v>
-      </c>
-      <c r="S32" t="s">
-        <v>71</v>
-      </c>
-      <c r="T32" t="s">
-        <v>72</v>
-      </c>
-      <c r="U32" t="s">
-        <v>73</v>
-      </c>
-      <c r="V32" t="s">
-        <v>68</v>
-      </c>
-      <c r="W32" t="s">
-        <v>69</v>
-      </c>
-      <c r="X32" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>178.84999999999999</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>25.399999999999999</v>
-      </c>
-      <c r="AE32">
-        <v>7</v>
-      </c>
-      <c r="AF32" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AG32" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AH32" s="3">
-        <v>5.7999999999999998</v>
-      </c>
-      <c r="AI32" s="3">
-        <v>13.199999999999999</v>
-      </c>
-      <c r="AJ32">
-        <v>178</v>
-      </c>
-      <c r="AK32" s="4">
-        <v>2.5790000000000002</v>
-      </c>
-      <c r="AL32" s="5">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="AM32" s="4">
-        <v>2.0230000000000001</v>
-      </c>
-      <c r="AN32" s="4">
-        <v>0.041000000000000002</v>
-      </c>
-      <c r="AO32" s="5">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AP32" s="4">
-        <v>0.063</v>
-      </c>
-      <c r="AQ32" s="4">
-        <v>0.052999999999999999</v>
-      </c>
-      <c r="AR32" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AS32" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F33" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" t="s">
-        <v>67</v>
-      </c>
-      <c r="N33" t="s">
-        <v>68</v>
-      </c>
-      <c r="O33" t="s">
-        <v>69</v>
-      </c>
-      <c r="P33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>70</v>
-      </c>
-      <c r="R33" t="s">
-        <v>71</v>
-      </c>
-      <c r="S33" t="s">
-        <v>71</v>
-      </c>
-      <c r="T33" t="s">
-        <v>72</v>
-      </c>
-      <c r="U33" t="s">
-        <v>73</v>
-      </c>
-      <c r="V33" t="s">
-        <v>68</v>
-      </c>
-      <c r="W33" t="s">
-        <v>69</v>
-      </c>
-      <c r="X33" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC33" s="5">
-        <v>244.62</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>26.899999999999999</v>
-      </c>
-      <c r="AE33" s="3">
-        <v>7.5999999999999996</v>
-      </c>
-      <c r="AF33" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AG33" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AH33" s="3">
-        <v>5.7999999999999998</v>
-      </c>
-      <c r="AI33" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AJ33">
-        <v>189</v>
-      </c>
-      <c r="AK33" s="4">
-        <v>2.0430000000000001</v>
-      </c>
-      <c r="AL33" s="4">
-        <v>1.861</v>
-      </c>
-      <c r="AM33" s="4">
-        <v>1.6020000000000001</v>
-      </c>
-      <c r="AN33" s="4">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="AO33" s="4">
-        <v>0.057000000000000002</v>
-      </c>
-      <c r="AP33" s="4">
-        <v>0.049000000000000002</v>
-      </c>
-      <c r="AQ33" s="4">
-        <v>0.035999999999999997</v>
-      </c>
-      <c r="AR33" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="AS33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F34" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" t="s">
-        <v>67</v>
-      </c>
-      <c r="N34" t="s">
-        <v>68</v>
-      </c>
-      <c r="O34" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>70</v>
-      </c>
-      <c r="R34" t="s">
-        <v>71</v>
-      </c>
-      <c r="S34" t="s">
-        <v>71</v>
-      </c>
-      <c r="T34" t="s">
-        <v>72</v>
-      </c>
-      <c r="U34" t="s">
-        <v>73</v>
-      </c>
-      <c r="V34" t="s">
-        <v>68</v>
-      </c>
-      <c r="W34" t="s">
-        <v>69</v>
-      </c>
-      <c r="X34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC34" s="5">
-        <v>194.58000000000001</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>25.699999999999999</v>
-      </c>
-      <c r="AE34" s="3">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="AF34">
-        <v>8</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="3">
-        <v>5.7000000000000002</v>
-      </c>
-      <c r="AI34" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AJ34">
-        <v>153</v>
-      </c>
-      <c r="AK34" s="4">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="AL34" s="4">
-        <v>1.6419999999999999</v>
-      </c>
-      <c r="AM34" s="4">
-        <v>1.454</v>
-      </c>
-      <c r="AN34" s="4">
-        <v>0.075999999999999998</v>
-      </c>
-      <c r="AO34" s="4">
-        <v>0.098000000000000004</v>
-      </c>
-      <c r="AP34" s="4">
-        <v>0.076999999999999999</v>
-      </c>
-      <c r="AQ34" s="4">
-        <v>0.067000000000000004</v>
-      </c>
-      <c r="AR34" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AS34" s="3">
-        <v>4.2999999999999998</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F35" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" t="s">
-        <v>68</v>
-      </c>
-      <c r="O35" t="s">
-        <v>69</v>
-      </c>
-      <c r="P35" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35" t="s">
-        <v>71</v>
-      </c>
-      <c r="S35" t="s">
-        <v>71</v>
-      </c>
-      <c r="T35" t="s">
-        <v>72</v>
-      </c>
-      <c r="U35" t="s">
-        <v>73</v>
-      </c>
-      <c r="V35" t="s">
-        <v>68</v>
-      </c>
-      <c r="W35" t="s">
-        <v>69</v>
-      </c>
-      <c r="X35" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC35" s="5">
-        <v>312.86000000000001</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>21.800000000000001</v>
-      </c>
-      <c r="AE35" s="3">
-        <v>7.9000000000000004</v>
-      </c>
-      <c r="AF35" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AG35" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="AH35" s="3">
-        <v>11.300000000000001</v>
-      </c>
-      <c r="AI35" s="3">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="AJ35">
-        <v>114</v>
-      </c>
-      <c r="AK35" s="5">
-        <v>1.8600000000000001</v>
-      </c>
-      <c r="AL35" s="4">
-        <v>1.6779999999999999</v>
-      </c>
-      <c r="AM35" s="4">
-        <v>1.389</v>
-      </c>
-      <c r="AN35" s="4">
-        <v>0.035000000000000003</v>
-      </c>
-      <c r="AO35" s="4">
-        <v>0.121</v>
-      </c>
-      <c r="AP35" s="4">
-        <v>0.091999999999999998</v>
-      </c>
-      <c r="AQ35" s="4">
-        <v>0.072999999999999995</v>
-      </c>
-      <c r="AR35" s="3">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="AS35" s="3">
-        <v>7.9000000000000004</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F36" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" t="s">
-        <v>67</v>
-      </c>
-      <c r="L36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" t="s">
-        <v>68</v>
-      </c>
-      <c r="O36" t="s">
-        <v>69</v>
-      </c>
-      <c r="P36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>70</v>
-      </c>
-      <c r="R36" t="s">
-        <v>71</v>
-      </c>
-      <c r="S36" t="s">
-        <v>71</v>
-      </c>
-      <c r="T36" t="s">
-        <v>72</v>
-      </c>
-      <c r="U36" t="s">
-        <v>73</v>
-      </c>
-      <c r="V36" t="s">
-        <v>68</v>
-      </c>
-      <c r="W36" t="s">
-        <v>69</v>
-      </c>
-      <c r="X36" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC36" s="5">
-        <v>69.370000000000005</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>22.300000000000001</v>
-      </c>
-      <c r="AE36" s="3">
-        <v>7.9000000000000004</v>
-      </c>
-      <c r="AF36" s="3">
-        <v>8.0999999999999996</v>
-      </c>
-      <c r="AG36" s="3">
-        <v>0.90000000000000002</v>
-      </c>
-      <c r="AH36" s="3">
-        <v>5.7000000000000002</v>
-      </c>
-      <c r="AI36" s="3">
-        <v>21.600000000000001</v>
-      </c>
-      <c r="AJ36">
-        <v>169</v>
-      </c>
-      <c r="AK36" s="5">
-        <v>2.4399999999999999</v>
-      </c>
-      <c r="AL36" s="4">
-        <v>2.254</v>
-      </c>
-      <c r="AM36" s="4">
-        <v>1.9179999999999999</v>
-      </c>
-      <c r="AN36" s="5">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="AO36" s="4">
-        <v>0.068000000000000005</v>
-      </c>
-      <c r="AP36" s="4">
-        <v>0.056000000000000001</v>
-      </c>
-      <c r="AQ36" s="4">
-        <v>0.033000000000000002</v>
-      </c>
-      <c r="AR36" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AS36" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2">
-        <v>36.351683000000001</v>
-      </c>
-      <c r="F37" s="2">
-        <v>128.29709700000001</v>
-      </c>
-      <c r="G37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" t="s">
-        <v>67</v>
-      </c>
-      <c r="N37" t="s">
-        <v>68</v>
-      </c>
-      <c r="O37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P37" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>70</v>
-      </c>
-      <c r="R37" t="s">
-        <v>71</v>
-      </c>
-      <c r="S37" t="s">
-        <v>71</v>
-      </c>
-      <c r="T37" t="s">
-        <v>72</v>
-      </c>
-      <c r="U37" t="s">
-        <v>73</v>
-      </c>
-      <c r="V37" t="s">
-        <v>68</v>
-      </c>
-      <c r="W37" t="s">
-        <v>69</v>
-      </c>
-      <c r="X37" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC37" s="5">
-        <v>68.969999999999999</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>20.699999999999999</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AG37" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AH37" s="3">
-        <v>6.7999999999999998</v>
-      </c>
-      <c r="AI37" s="3">
-        <v>30.399999999999999</v>
-      </c>
-      <c r="AJ37">
-        <v>184</v>
-      </c>
-      <c r="AK37" s="4">
-        <v>2.3119999999999998</v>
-      </c>
-      <c r="AL37" s="3">
-        <v>2.1000000000000001</v>
-      </c>
-      <c r="AM37" s="4">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="AN37" s="4">
-        <v>0.075999999999999998</v>
-      </c>
-      <c r="AO37" s="4">
-        <v>0.071999999999999995</v>
-      </c>
-      <c r="AP37" s="4">
-        <v>0.042999999999999997</v>
-      </c>
-      <c r="AQ37" s="4">
-        <v>0.031</v>
-      </c>
-      <c r="AR37" s="3">
-        <v>10.300000000000001</v>
-      </c>
-      <c r="AS37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>